--- a/Data/retirement_salaries_chart.xlsx
+++ b/Data/retirement_salaries_chart.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,18 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Git\Pewlett-Hackard-Analysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6A2E4EE-126E-419F-9EC5-407BBBD2C9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06076E61-E2C1-4C4E-A147-1C0EEEED4CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="18210" windowHeight="13260" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="18210" windowHeight="13260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
     <sheet name="retirement_salaries_chart" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -62,10 +72,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -668,7 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -828,7 +838,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -910,7 +922,6 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
         <c:axId val="263893712"/>
         <c:axId val="263892464"/>
         <c:extLst>
@@ -1290,13 +1301,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -1874,7 +1882,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="User" refreshedDate="44952.678517939814" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="7">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="User" refreshedDate="44952.678517939814" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="7" xr:uid="{00000000-000A-0000-FFFF-FFFF07000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D8" sheet="retirement_salaries_chart"/>
   </cacheSource>
@@ -1885,7 +1893,7 @@
     <cacheField name="count" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="25916"/>
     </cacheField>
-    <cacheField name="salary_sum" numFmtId="166">
+    <cacheField name="salary_sum" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="119225" maxValue="1454372739"/>
     </cacheField>
     <cacheField name="per role" numFmtId="44">
@@ -1948,12 +1956,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="44" showAll="0"/>
   </pivotFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -2264,7 +2272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2369,7 +2377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
